--- a/biology/Botanique/Fruit_de_la_passion/Fruit_de_la_passion.xlsx
+++ b/biology/Botanique/Fruit_de_la_passion/Fruit_de_la_passion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le fruit de la passion est le fruit de certaines plantes à fleurs du genre Passiflora[1],[2], dont en particulier Passiflora edulis (la grenadille).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fruit de la passion est le fruit de certaines plantes à fleurs du genre Passiflora dont en particulier Passiflora edulis (la grenadille).
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le fruit de la passion est ainsi appelé parce qu'il provient de l'une des nombreuses espèces de fleur de la passion (en latin Passiflora)[1]. Vers 1700, le nom a été donné par des missionnaires au Brésil comme aide pédagogique tout en essayant de convertir les habitants indigènes au christianisme ; son nom était flor das cinco chagas ou « fleur des cinq plaies » pour illustrer la Crucifixion du Christ et sa Résurrection, avec d'autres composants végétaux également nommés d'après un emblème de la Passion de Jésus[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fruit de la passion est ainsi appelé parce qu'il provient de l'une des nombreuses espèces de fleur de la passion (en latin Passiflora). Vers 1700, le nom a été donné par des missionnaires au Brésil comme aide pédagogique tout en essayant de convertir les habitants indigènes au christianisme ; son nom était flor das cinco chagas ou « fleur des cinq plaies » pour illustrer la Crucifixion du Christ et sa Résurrection, avec d'autres composants végétaux également nommés d'après un emblème de la Passion de Jésus.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Apparence et structure</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les fruits de la passion sont ronds ou ovales[1]. Ils peuvent être jaunes, rouges, violets et verts. Les fruits sont des baies contenant de nombreuses graines réticulées, sillonnées ou ponctuées, et entourées par un arille translucide et souvent mucilagineux[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fruits de la passion sont ronds ou ovales. Ils peuvent être jaunes, rouges, violets et verts. Les fruits sont des baies contenant de nombreuses graines réticulées, sillonnées ou ponctuées, et entourées par un arille translucide et souvent mucilagineux.
 </t>
         </is>
       </c>
@@ -573,13 +589,15 @@
           <t>Variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les fruits de la passion comestibles peuvent être divisés en quatre types principaux :
 fruit de la passion violet (fruits de Passiflora edulis Sims),
 fruit de la passion jaune (Passiflora edulis f. flavicarpa Deg.),
 grenadille douce (Passiflora ligularis), appelée aussi grenadelle,
-grenadille géante (Passiflora quadrangularis L.)[5].</t>
+grenadille géante (Passiflora quadrangularis L.).</t>
         </is>
       </c>
     </row>
@@ -607,9 +625,11 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La partie du fruit qui est consommée sont les graines pulpeuses et juteuses. Les fruits de la passion peuvent également être pressés pour en faire du jus[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La partie du fruit qui est consommée sont les graines pulpeuses et juteuses. Les fruits de la passion peuvent également être pressés pour en faire du jus.
 </t>
         </is>
       </c>
@@ -638,9 +658,11 @@
           <t>Phytochimiques</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plusieurs variétés de fruits de la passion sont riches en polyphénols[6],[7], et les variétés jaunes du fruit contiennent de la prunasine et d'autres glycosides cyanogènes dans la peau et le jus.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs variétés de fruits de la passion sont riches en polyphénols et les variétés jaunes du fruit contiennent de la prunasine et d'autres glycosides cyanogènes dans la peau et le jus.
 </t>
         </is>
       </c>
